--- a/migration_plan/переход на spring.xlsx
+++ b/migration_plan/переход на spring.xlsx
@@ -63,7 +63,7 @@
     <t>Реализовать обращение к веб-сервису</t>
   </si>
   <si>
-    <t>Реализовать обращение через Rest</t>
+    <t>Реализовать обращение через Http</t>
   </si>
 </sst>
 </file>
@@ -571,7 +571,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/migration_plan/переход на spring.xlsx
+++ b/migration_plan/переход на spring.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>Шаг</t>
   </si>
@@ -64,6 +64,75 @@
   </si>
   <si>
     <t>Реализовать обращение через Http</t>
+  </si>
+  <si>
+    <t>Затрачено</t>
+  </si>
+  <si>
+    <t>30 минут</t>
+  </si>
+  <si>
+    <t>3 часа</t>
+  </si>
+  <si>
+    <t>20 минут</t>
+  </si>
+  <si>
+    <t>Риск</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отсутствие возможности запустить тесты, из-за особенностей перехода на фреймворк. </t>
+  </si>
+  <si>
+    <t>Предупреждение</t>
+  </si>
+  <si>
+    <t>Проблемы с использование html-шаблонов</t>
+  </si>
+  <si>
+    <t>В зависимости от используемого сервера и возможностей фреймворка, могут возникнуть трудности с отказом от своего шаблонизатора</t>
+  </si>
+  <si>
+    <t>Стартовая конфигурация фреймворка не позволяет осуществить все задачи сервиса</t>
+  </si>
+  <si>
+    <t>Сложность в настройке окружения и подключении библиотек, отсутствие необходимого функционала из коробки</t>
+  </si>
+  <si>
+    <t>Не работают тесты</t>
+  </si>
+  <si>
+    <t>Проблемы с поддержкой i18n</t>
+  </si>
+  <si>
+    <t>Отсутствие поддержки unicode, на уровне отображения или внутренней обработки данных</t>
+  </si>
+  <si>
+    <t>При выборе фреймвора, обратить внимание на наличие средств для i18n</t>
+  </si>
+  <si>
+    <t>Степень предупреждения</t>
+  </si>
+  <si>
+    <t>не проявился</t>
+  </si>
+  <si>
+    <t>проявился</t>
+  </si>
+  <si>
+    <t>6 часов</t>
+  </si>
+  <si>
+    <t>6 часов 50 минут</t>
+  </si>
+  <si>
+    <t>Убедиться в том, что особенности инициализации фреймворка и запуска сервера не помешают использованию известных шаблонов,  в противном случае оценить трудоемкость испльзования шаблонов фреймворка</t>
+  </si>
+  <si>
+    <t>Убедиться в том, что особенности инициализации фреймворка и запуска сервера не помешают существующим тестам, в противном случае, выбрать другой фреймворк</t>
+  </si>
+  <si>
+    <t>Изучить систему настройки зависимостей и возможностей фреймворка, чтобы обнаружить узкие места для конфигурирования, учесть это при планировании</t>
   </si>
 </sst>
 </file>
@@ -88,7 +157,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,6 +182,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -183,6 +264,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -192,9 +299,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -207,9 +312,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -217,50 +320,21 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -273,19 +347,39 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -568,88 +662,179 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
     <col min="2" max="2" width="34.42578125" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
     <col min="5" max="5" width="21.140625" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="10" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/migration_plan/переход на spring.xlsx
+++ b/migration_plan/переход на spring.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>Шаг</t>
   </si>
@@ -133,6 +133,15 @@
   </si>
   <si>
     <t>Изучить систему настройки зависимостей и возможностей фреймворка, чтобы обнаружить узкие места для конфигурирования, учесть это при планировании</t>
+  </si>
+  <si>
+    <t>Время</t>
+  </si>
+  <si>
+    <t>30 мин</t>
+  </si>
+  <si>
+    <t>1 час 30м</t>
   </si>
 </sst>
 </file>
@@ -330,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -382,6 +391,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -662,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,18 +831,35 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B11" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C11" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D11" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E11" s="18" t="s">
         <v>31</v>
       </c>
     </row>
